--- a/Logging_DALARNAS_LAN/Logging_ALVDALEN/artfynd/A 30234-2023.xlsx
+++ b/Logging_DALARNAS_LAN/Logging_ALVDALEN/artfynd/A 30234-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111080306</v>
+        <v>111080550</v>
       </c>
       <c r="B2" t="n">
-        <v>76909</v>
+        <v>78081</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6437</v>
+        <v>229821</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,13 +723,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>364854.1274682746</v>
+        <v>364884.7685042822</v>
       </c>
       <c r="R2" t="n">
-        <v>6872236.515383606</v>
+        <v>6872248.013299237</v>
       </c>
       <c r="S2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>15:57</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -768,7 +768,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>15:57</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Växer på silverved.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -795,10 +800,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111080550</v>
+        <v>111080144</v>
       </c>
       <c r="B3" t="n">
-        <v>78072</v>
+        <v>78081</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -838,10 +843,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>364884.7685042822</v>
+        <v>364854.7252037479</v>
       </c>
       <c r="R3" t="n">
-        <v>6872248.013299237</v>
+        <v>6872251.561342631</v>
       </c>
       <c r="S3" t="n">
         <v>4</v>
@@ -873,7 +878,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>15:57</t>
+          <t>15:37</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -883,12 +888,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>15:57</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Växer på silverved.</t>
+          <t>15:37</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -915,10 +915,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111080144</v>
+        <v>111080306</v>
       </c>
       <c r="B4" t="n">
-        <v>78072</v>
+        <v>76918</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -931,21 +931,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>229821</v>
+        <v>6437</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -958,13 +958,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>364854.7252037479</v>
+        <v>364854.1274682746</v>
       </c>
       <c r="R4" t="n">
-        <v>6872251.561342631</v>
+        <v>6872236.515383606</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -993,7 +993,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>15:37</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>15:37</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1030,10 +1030,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111094096</v>
+        <v>111094083</v>
       </c>
       <c r="B5" t="n">
-        <v>76909</v>
+        <v>78107</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1046,26 +1046,30 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6437</v>
+        <v>6453</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1073,10 +1077,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>364814.1317645683</v>
+        <v>364850.6888224468</v>
       </c>
       <c r="R5" t="n">
-        <v>6872321.928985744</v>
+        <v>6872268.67504003</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1108,7 +1112,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1118,12 +1122,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Växer på silverstubbe.</t>
+          <t>Växer på silverstubbe</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1143,7 +1147,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>Tallskog. Kontinutietsskog med en lågor och silverved utspritt i skogsområdet.</t>
+          <t>Tallskog. Kontinutitetsskog</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1176,10 +1180,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111094496</v>
+        <v>111094336</v>
       </c>
       <c r="B6" t="n">
-        <v>81236</v>
+        <v>88489</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1192,21 +1196,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1312</v>
+        <v>1962</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1219,10 +1223,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>364879.2045563864</v>
+        <v>364851.6679480365</v>
       </c>
       <c r="R6" t="n">
-        <v>6872214.798286031</v>
+        <v>6872269.577990474</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1254,7 +1258,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1264,12 +1268,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Växer på senvuxen gammal gran med skrovlig bark.</t>
+          <t>Växer under grov kolad tallåga</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1289,22 +1293,22 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Fuktig miljö med kontinuitet av gammal gran</t>
+          <t>Tallskog med lågor och silverved.</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1322,10 +1326,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111093411</v>
+        <v>111094412</v>
       </c>
       <c r="B7" t="n">
-        <v>78596</v>
+        <v>73696</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1334,25 +1338,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6462</v>
+        <v>6440</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1365,10 +1369,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>364906.4502816074</v>
+        <v>364911.3785969455</v>
       </c>
       <c r="R7" t="n">
-        <v>6872295.186441017</v>
+        <v>6872205.514649167</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1400,7 +1404,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1410,12 +1414,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Växer på gammal sälg i kontiniutetsskog</t>
+          <t>Växer på gammal gran i fuktig miljö.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1435,22 +1439,22 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>Tallskog med inslag av löv. Kontinuitetsskog</t>
+          <t>Fuktig barrskogsmiljö.</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1468,10 +1472,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111094412</v>
+        <v>111094096</v>
       </c>
       <c r="B8" t="n">
-        <v>73693</v>
+        <v>76918</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1484,21 +1488,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6440</v>
+        <v>6437</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1511,10 +1515,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>364911.3785969455</v>
+        <v>364814.1317645683</v>
       </c>
       <c r="R8" t="n">
-        <v>6872205.514649167</v>
+        <v>6872321.928985744</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1546,7 +1550,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1556,12 +1560,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Växer på gammal gran i fuktig miljö.</t>
+          <t>Växer på silverstubbe.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1581,22 +1585,22 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>Fuktig barrskogsmiljö.</t>
+          <t>Tallskog. Kontinutietsskog med en lågor och silverved utspritt i skogsområdet.</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1614,10 +1618,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111094336</v>
+        <v>111093411</v>
       </c>
       <c r="B9" t="n">
-        <v>88476</v>
+        <v>78605</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1626,25 +1630,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1962</v>
+        <v>6462</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1657,10 +1661,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>364851.6679480365</v>
+        <v>364906.4502816074</v>
       </c>
       <c r="R9" t="n">
-        <v>6872269.577990474</v>
+        <v>6872295.186441017</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1692,7 +1696,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1702,12 +1706,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Växer under grov kolad tallåga</t>
+          <t>Växer på gammal sälg i kontiniutetsskog</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1727,22 +1731,22 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>Tallskog med lågor och silverved.</t>
+          <t>Tallskog med inslag av löv. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1760,10 +1764,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111094083</v>
+        <v>111094496</v>
       </c>
       <c r="B10" t="n">
-        <v>78098</v>
+        <v>81248</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1776,30 +1780,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6453</v>
+        <v>1312</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1807,10 +1807,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>364850.6888224468</v>
+        <v>364879.2045563864</v>
       </c>
       <c r="R10" t="n">
-        <v>6872268.67504003</v>
+        <v>6872214.798286031</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1852,12 +1852,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Växer på silverstubbe</t>
+          <t>Växer på senvuxen gammal gran med skrovlig bark.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1877,22 +1877,22 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>Tallskog. Kontinutitetsskog</t>
+          <t>Fuktig miljö med kontinuitet av gammal gran</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1910,10 +1910,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111114848</v>
+        <v>111114493</v>
       </c>
       <c r="B11" t="n">
-        <v>78072</v>
+        <v>56543</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1926,26 +1926,39 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>229821</v>
+        <v>103021</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>i par</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1953,13 +1966,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>364918.1867609197</v>
+        <v>364859.486173895</v>
       </c>
       <c r="R11" t="n">
-        <v>6872127.539505449</v>
+        <v>6872264.558142194</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1988,7 +2001,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>07:33</t>
+          <t>06:33</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1998,7 +2011,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>07:33</t>
+          <t>06:34</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -2007,7 +2020,6 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -2026,10 +2038,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111114493</v>
+        <v>111114848</v>
       </c>
       <c r="B12" t="n">
-        <v>56540</v>
+        <v>78081</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2042,39 +2054,26 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>103021</v>
+        <v>229821</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>i par</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>upprörd, varnande</t>
-        </is>
-      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -2082,13 +2081,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>364859.486173895</v>
+        <v>364918.1867609197</v>
       </c>
       <c r="R12" t="n">
-        <v>6872264.558142194</v>
+        <v>6872127.539505449</v>
       </c>
       <c r="S12" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2117,7 +2116,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>06:33</t>
+          <t>07:33</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2127,7 +2126,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>06:34</t>
+          <t>07:33</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2136,6 +2135,7 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>111115382</v>
       </c>
       <c r="B13" t="n">
-        <v>77506</v>
+        <v>77515</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
